--- a/datos/archivo_lotes1.xlsx
+++ b/datos/archivo_lotes1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\eclipse-workspace\Eclipse_Proyecto_1\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C6C5C-C692-489D-A405-5BC9A453F3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8CBBCE-C18D-4AEF-A60C-55349F1F9A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{813DBE1A-C804-4385-A704-83FE7E8EC88D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{813DBE1A-C804-4385-A704-83FE7E8EC88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>cantidadOriginal</t>
   </si>
@@ -60,9 +60,6 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>subcategoria1</t>
-  </si>
-  <si>
     <t>tipoRefrigerado</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Lacteos</t>
   </si>
   <si>
-    <t>Leche</t>
-  </si>
-  <si>
     <t>refrigeracion</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>25_11_2021</t>
   </si>
   <si>
-    <t>Queso</t>
-  </si>
-  <si>
     <t>24_11_2021</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Despensa</t>
   </si>
   <si>
-    <t>Arroz y granos</t>
-  </si>
-  <si>
     <t>Arroz Diana Premium x 1kg</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Vinos y licores</t>
   </si>
   <si>
-    <t>Cerveza</t>
-  </si>
-  <si>
     <t>15_06_2022</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
   </si>
   <si>
     <t>Aseo Personal</t>
-  </si>
-  <si>
-    <t>Higiene Dental</t>
   </si>
   <si>
     <t>Crema Dental Colgate 150ml</t>
@@ -530,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C432736-FDC6-4EFC-9485-A4142EBD939B}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,12 +523,10 @@
     <col min="1" max="2" width="17.6640625" customWidth="1"/>
     <col min="4" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="32.109375" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,18 +555,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>900000</v>
@@ -595,33 +572,30 @@
         <v>20000</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>100000</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>250000</v>
@@ -630,33 +604,30 @@
         <v>14000</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>100001</v>
       </c>
       <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>240000</v>
@@ -665,33 +636,30 @@
         <v>13000</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>100002</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>250000</v>
@@ -700,33 +668,30 @@
         <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>100003</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>550000</v>
@@ -735,33 +700,30 @@
         <v>5700</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>100004</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>150000</v>
@@ -770,33 +732,30 @@
         <v>1750</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>100005</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>600000</v>
@@ -805,33 +764,30 @@
         <v>13000</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>100006</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>550000</v>
@@ -840,33 +796,30 @@
         <v>12000</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>100007</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>225000</v>
@@ -875,25 +828,22 @@
         <v>7900</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>100008</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
